--- a/SA_Recommended_DOQL_Import.xlsx
+++ b/SA_Recommended_DOQL_Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Documents\GitHub\DOQL_scripts_examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Documents\GitHub\Device42-SA-REcommended-DOQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40ED72C-E85B-4138-8FB9-56F1849620C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFDECE8-64DA-4084-9086-5B22ED384E8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2595" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>api/1.0/saved_doql_queries</t>
   </si>
@@ -501,47 +501,7 @@
     <t>app_comp_and_software</t>
   </si>
   <si>
-    <t>/*
-DOQL for App Comp's with related software in use details.
-*/
-select
-ac.name "App Comp",
-d.name "Device",
-ip.ip_address "Device IP",
-s.name "Software Name",
-si.alias_name "Software Alias",
-si.version "Version"
-from view_appcomp_v1 ac
-left join view_device_v1 d on d.device_pk = ac.device_fk
-left join view_ipaddress_v1 ip on ip.device_fk = d.device_pk
-left join view_softwareinuse_v1 si on si.appcomp_fk = ac.appcomp_pk
-left join view_software_v1 s on s.software_pk = si.software_fk</t>
-  </si>
-  <si>
     <t>app_comps_with_service_communication</t>
-  </si>
-  <si>
-    <t>/*
-Built to be a concise report of application components with connections.
-This leverages services that have been discovered with an App Comp, and joins their clients as the "dependents".
-*/
-select distinct
-sac.name "App Comp",
-d.name "Device",
-s.name "Software Name",
-siu.alias_name "Software Alias",
-siu.version "Version",
-sc.port "Port",
-concat(cd.name, '|', sc.client_ip, '|', sc.client_process_display_name) "Dependents"
-from view_serviceinstance_v2 si
-left join view_servicelistenerport_v2 lp on si.serviceinstance_pk = lp.discovered_serviceinstance_fk
-join view_servicecommunication_v2 sc on sc.servicelistenerport_fk = lp.servicelistenerport_pk
-join view_serviceinstance_appcomp_v2 sica on sica.serviceinstance_fk = si.serviceinstance_pk
-join view_appcomp_v1 sac on sac.appcomp_pk = sica.appcomp_fk
-join view_device_v1 d on d.device_pk = sac.device_fk
-left join view_device_v1 cd on cd.device_pk = sc.client_device_fk
-left join view_softwareinuse_v1 siu on siu.appcomp_fk = sac.appcomp_pk
-left join view_software_v1 s on s.software_pk = siu.software_fk</t>
   </si>
   <si>
     <t>count_for_detailed_discovery_data</t>
@@ -611,62 +571,7 @@
     <t>resource_utilization</t>
   </si>
   <si>
-    <t>/*
-For RU data and metrics.
-*/
-select 
-    r.last_updated "RU Data Last Updated",
-    d.name "Device Name",
-    d.monitoring_enabled "Monitoring Enabled",
-    r.rudata_pk "Resource ID",
-    r.value "Resource Value",
-    r.sensor_type "Resource Type",
-    r.sensor "Resource",
-    r.measure_type "Measurement Type",
-    r.metric "Measurement Metric",
-    r.timeperiod_id "Time Period ID",
-    r.timeperiod "Time Period",
-    rc.name "Remote Collector Name",
-    rc.ip "Remote Collector IP"
-    from view_device_v1 d
-    left join view_rudata_v1 r on r.device_fk = d.device_pk
-    left join view_remotecollector_v1 rc on rc.remotecollector_pk = r.remotecollector_fk
-    order by d.monitoring_enabled DESC, d.name ASC, r.timeperiod_id ASC, r.measure_type ASC, r.metric ASC</t>
-  </si>
-  <si>
     <t>service_communication</t>
-  </si>
-  <si>
-    <t>/*
-Query for all discovered connections to service instances.
-*/
-select
-ld.name "Listening Device",
-ag.name "Affinity Group",
-sc.listener_ip "Listening IP",
-lp.port "Listening Port",
-s.displayname "Listening Service",
-sc.port "Port Communication",
-sc.protocol "Protocol",
-cd.name "Client Device",
-sc.client_ip "Client IP",
-sc.port "Client Port Communication",
-sc.client_process_display_name "Process Display Name",
-sc.client_process_name "Process Name",
-sc.last_detected "Communication Last Detected",
-sc.netstat_active_samples "Netstat # Times Port Actively Connected at Discovery",
-sc.netstat_total_samples "Netstat # Times Discovery Checked for Connection",
-sc.netstat_total_eports "Netstat Total # Port Connections at Discovery",
-sc.netstat_all_first_stat "Netstat Time First Time Port Connected at Discovery",
-sc.netstat_all_last_stat "Netstat Last Time Port Connected at Discovery"
-from view_servicecommunication_v2 sc
-join view_device_v1 ld on ld.device_pk = sc.listener_device_fk
-join view_servicelistenerport_v2 lp on lp.servicelistenerport_pk = sc.servicelistenerport_fk
-join view_serviceinstance_v2 si on si.serviceinstance_pk = lp.discovered_serviceinstance_fk
-join view_service_v2 s on s.service_pk = si.service_fk
-left join view_device_v1 cd on cd.device_pk = sc.client_device_fk
-left join view_affinitygroup_v2 ag on ag.primary_device_fk = ld.device_pk
-where sc.client_ip != '127.0.0.1' and sc.client_ip != '::1'</t>
   </si>
   <si>
     <t>/*
@@ -698,107 +603,6 @@
   </si>
   <si>
     <t>unused_servers</t>
-  </si>
-  <si>
-    <t>/*
-2019-10-25 Servers Activity and Utilization
-Returns discovery, RU, and service connection information to give a sense of when this device
-was last discovered or how it has been used. Includes fields like last attempted/successful discovery,
-last service comms and software install, last login, general device details and RU data. 
-Useful in identifying underutilized or zombie servers.
-*/
-select
-	ds.updated "Last Attempted Discovery",
-	(select max(scl.last_detected) from view_servicecommunication_v2 scl where d.device_pk = scl.listener_device_fk) "Last Detected Comms (Listener)",
-	(select max(scc.last_detected) from view_servicecommunication_v2 scc where d.device_pk = scc.client_device_fk) "Last Detected Comms (Client)",
-	(select max(siu.install_date) from view_softwareinuse_v1 siu where d.device_pk = siu.device_fk) "Last Software Installation",
-	d.*,
-	l.last_login,
-	l.domain,
-	l.username
-from
-    (
-        select
-            d.device_pk,
-            d.last_edited "Last Successful Discovery",
-            d.name "Device Name",
-            d.virtual_subtype "Virtual Subtype",
-            d.os_name "OS Name",
-            d.os_version_no "OS Version",
-            d.os_arch "OS Architecture",
-            d.cpucount "CPU Count",
-            d.cpucore "Cores Per Socket",
-            CASE
-               WHEN d.in_service = 't'
-               THEN
-               'YES'
-               ELSE
-               'NO'
-            END "In Service?",
-            round(sum((select ru.value where ru.measure_type_id = '1' and ru.timeperiod_id = '1' and ru.metric_id = '3'))::numeric, 2) "1 Day CPU AVG (%)",
-            round(sum((select ru.value where ru.measure_type_id = '1' and ru.timeperiod_id = '1' and ru.metric_id = '1'))::numeric, 2) "1 Day CPU MAX (%)",
-            round(sum((select ru.value where ru.measure_type_id = '1' and ru.timeperiod_id = '2' and ru.metric_id = '3'))::numeric, 2) "7 Day CPU AVG (%)",
-            round(sum((select ru.value where ru.measure_type_id = '1' and ru.timeperiod_id = '2' and ru.metric_id = '1'))::numeric, 2) "7 Day CPU MAX (%)",
-            round(sum((select ru.value where ru.measure_type_id = '1' and ru.timeperiod_id = '3' and ru.metric_id = '3'))::numeric, 2) "30 Day CPU AVG (%)",
-            round(sum((select ru.value where ru.measure_type_id = '1' and ru.timeperiod_id = '3' and ru.metric_id = '1'))::numeric, 2) "30 Day CPU MAX (%)",
-            round(sum((select ru.value where ru.measure_type_id = '1' and ru.timeperiod_id = '4' and ru.metric_id = '3'))::numeric, 2) "90 Day CPU AVG (%)",
-            round(sum((select ru.value where ru.measure_type_id = '1' and ru.timeperiod_id = '4' and ru.metric_id = '1'))::numeric, 2) "90 Day CPU MAX (%)", 
-            round(sum((select ru.value * 100 / (d.ram * 1024) where ru.measure_type_id = '2' and ru.timeperiod_id = '1' and ru.metric_id = '3'))::numeric, 2) "1 Day MEM AVG (%)",
-            round(sum((select ru.value * 100 / (d.ram * 1024) where ru.measure_type_id = '2' and ru.timeperiod_id = '1' and ru.metric_id = '1'))::numeric, 2) "1 Day MEM MAX (%)",
-            round(sum((select ru.value * 100 / (d.ram * 1024) where ru.measure_type_id = '2' and ru.timeperiod_id = '2' and ru.metric_id = '3'))::numeric, 2) "7 Day MEM AVG (%)",
-            round(sum((select ru.value * 100 / (d.ram * 1024) where ru.measure_type_id = '2' and ru.timeperiod_id = '2' and ru.metric_id = '1'))::numeric, 2) "7 Day MEM MAX (%)",
-            round(sum((select ru.value * 100 / (d.ram * 1024) where ru.measure_type_id = '2' and ru.timeperiod_id = '3' and ru.metric_id = '3'))::numeric, 2) "30 Day MEM AVG (%)",
-            round(sum((select ru.value * 100 / (d.ram * 1024) where ru.measure_type_id = '2' and ru.timeperiod_id = '3' and ru.metric_id = '1'))::numeric, 2) "30 Day MEM MAX (%)",
-            round(sum((select ru.value * 100 / (d.ram * 1024) where ru.measure_type_id = '2' and ru.timeperiod_id = '4' and ru.metric_id = '3'))::numeric, 2) "90 Day MEM AVG (%)",
-            round(sum((select ru.value * 100 / (d.ram * 1024) where ru.measure_type_id = '2' and ru.timeperiod_id = '4' and ru.metric_id = '1'))::numeric, 2) "90 Day MEM MAX (%)",
-            round(sum((select ru.value where ru.measure_type_id = '3' and ru.timeperiod_id = '1' and ru.metric_id = '3'))::numeric, 2) "1 Day DISK IO Read AVG",
-            round(sum((select ru.value where ru.measure_type_id = '3' and ru.timeperiod_id = '1' and ru.metric_id = '1'))::numeric, 2) "1 Day DISK IO Read MAX",
-            round(sum((select ru.value where ru.measure_type_id = '3' and ru.timeperiod_id = '2' and ru.metric_id = '3'))::numeric, 2) "7 Day DISK IO Read AVG",
-            round(sum((select ru.value where ru.measure_type_id = '3' and ru.timeperiod_id = '2' and ru.metric_id = '1'))::numeric, 2) "7 Day DISK IO Read MAX",
-            round(sum((select ru.value where ru.measure_type_id = '3' and ru.timeperiod_id = '3' and ru.metric_id = '3'))::numeric, 2) "30 Day DISK IO Read AVG",
-            round(sum((select ru.value where ru.measure_type_id = '3' and ru.timeperiod_id = '3' and ru.metric_id = '1'))::numeric, 2) "30 Day DISK IO Read MAX",
-            round(sum((select ru.value where ru.measure_type_id = '3' and ru.timeperiod_id = '4' and ru.metric_id = '3'))::numeric, 2) "90 Day DISK IO Read AVG",
-            round(sum((select ru.value where ru.measure_type_id = '3' and ru.timeperiod_id = '4' and ru.metric_id = '1'))::numeric, 2) "90 Day DISK IO Read MAX",
-            round(sum((select ru.value where ru.measure_type_id = '4' and ru.timeperiod_id = '1' and ru.metric_id = '3'))::numeric, 2) "1 Day DISK IO Write AVG",
-            round(sum((select ru.value where ru.measure_type_id = '4' and ru.timeperiod_id = '1' and ru.metric_id = '1'))::numeric, 2) "1 Day DISK IO Write MAX",
-            round(sum((select ru.value where ru.measure_type_id = '4' and ru.timeperiod_id = '2' and ru.metric_id = '3'))::numeric, 2) "7 Day DISK IO Write AVG",
-            round(sum((select ru.value where ru.measure_type_id = '4' and ru.timeperiod_id = '2' and ru.metric_id = '1'))::numeric, 2) "7 Day DISK IO Write MAX",
-            round(sum((select ru.value where ru.measure_type_id = '4' and ru.timeperiod_id = '3' and ru.metric_id = '3'))::numeric, 2) "30 Day DISK IO Write AVG",
-            round(sum((select ru.value where ru.measure_type_id = '4' and ru.timeperiod_id = '3' and ru.metric_id = '1'))::numeric, 2) "30 Day DISK IO Write MAX",
-            round(sum((select ru.value where ru.measure_type_id = '4' and ru.timeperiod_id = '4' and ru.metric_id = '3'))::numeric, 2) "90 Day DISK IO Write AVG",
-            round(sum((select ru.value where ru.measure_type_id = '4' and ru.timeperiod_id = '4' and ru.metric_id = '1'))::numeric, 2) "90 Day DISK IO Write MAX",
-            round(sum((select ru.value where ru.measure_type_id = '9' and ru.timeperiod_id = '1' and ru.metric_id = '4'))::numeric, 2) "1 Day NIC Transfer IN",
-            round(sum((select ru.value where ru.measure_type_id = '10' and ru.timeperiod_id = '1' and ru.metric_id = '4'))::numeric, 2) "1 Day NIC Transfer OUT",
-            round(sum((select ru.value where ru.measure_type_id = '9' and ru.timeperiod_id = '2' and ru.metric_id = '4'))::numeric, 2) "7 Day NIC Transfer IN",
-            round(sum((select ru.value where ru.measure_type_id = '10' and ru.timeperiod_id = '2' and ru.metric_id = '4'))::numeric, 2) "7 Day NIC Transfer OUT",
-            round(sum((select ru.value where ru.measure_type_id = '9' and ru.timeperiod_id = '3' and ru.metric_id = '4'))::numeric, 2) "30 Day NIC Transfer IN",
-            round(sum((select ru.value where ru.measure_type_id = '10' and ru.timeperiod_id = '3' and ru.metric_id = '4'))::numeric, 2) "30 Day NIC Transfer OUT",
-            round(sum((select ru.value where ru.measure_type_id = '9' and ru.timeperiod_id = '4' and ru.metric_id = '4'))::numeric, 2) "90 Day NIC Transfer IN",
-            round(sum((select ru.value where ru.measure_type_id = '10' and ru.timeperiod_id = '4' and ru.metric_id = '4'))::numeric, 2) "90 Day NIC Transfer OUT"
-        from 
-            view_device_v1 d
-            left join view_rudata_v1 ru on d.device_pk = ru.device_fk
-        group by
-            d.device_pk,
-            "Last Successful Discovery",
-            "Device Name",
-            "Virtual Subtype",
-            "OS Name",
-            "OS Version",
-            "OS Architecture",
-            "CPU Count",
-            "Cores Per Socket",
-            "In Service?"
-        Order by d.name ASC
-    ) d
-    join view_discoveryscores_v1 ds on ds.device_fk = d.device_pk and
-									   ds.added = (select max(lds.added) from view_discoveryscores_v1 lds where lds.device_fk = d.device_pk)	
-    join view_jobscore_v1 js on ds.jobscore_fk = js.jobscore_pk and
-							    js.jobscore_pk = (select max(ljs.jobscore_pk) from view_jobscore_v1 ljs where ljs.jobscore_pk = ds.jobscore_fk)
-    join view_devicelastlogin_v1 l on l.device_fk = d.device_pk and 
-                                      l.last_login = (select max(lr.last_login) from view_devicelastlogin_v1 lr where lr.device_fk = d.device_pk)   
-where 
-    js.jobscore_pk in (select max(jobscore_pk) from view_jobscore_v1 jk group by jk.vserverdiscovery_fk)</t>
   </si>
   <si>
     <t>Recommended DOQL</t>
@@ -959,6 +763,582 @@
 	  listener_port ASC, 
 	  service ASC, 
 	  client_host ASC	 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/*
+	2020-09-17 Resource Utilization
+	Returns Discovery Device and RU info for all non-network devices
+	- Changed to use the avg and max functions to replace the sum functions
+	- Only showing devices that have RU data collected for CPU, Disk, Memory and NIC IO
+	- add in location - for on Prem use building; for cloud use cloud_location 
+*/
+With 
+    target_device_data  as (
+        Select
+            d.device_pk
+            ,d.last_edited "Last Successful Discovery"
+            ,d.name "Device Name"
+            ,d.virtual_subtype "Virtual Subtype"
+            ,d.os_name "OS Name"
+            ,d.os_version_no "OS Version"
+            ,d.os_arch "OS Architecture"
+            ,d.cpucount "CPU Count"
+            ,d.cpucore "Cores Per Socket"
+            ,CASE 
+				When ram_size_type = 'GB' 
+				Then d.ram*1024
+				ELSE d.ram
+            END "Ram"			
+            ,CASE
+				WHEN d.in_service = 't'
+				THEN 'YES'
+				ELSE 'NO'
+            END "In Service?"
+			,b.name "Building Loc"
+			,d.cloud_location "Cloud Loc"
+			,coalesce(d.cloud_location,b.name) "Location"			
+        From 
+            view_device_v1 d
+		Left Join view_building_v1 b on b.building_pk = d.building_fk
+		Where Not network_device and d.ram &gt; 0	
+		Order by d.name	
+	),
+ /* Pull the RU data and get the desired values  */	
+    target_ru_data  as (
+        Select
+            tdd.device_pk
+            ,round(avg((Select ru.value Where ru.measure_type_id = '1' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "1 Day CPU AVG (%)"
+            ,round(max((Select ru.value Where ru.measure_type_id = '1' and ru.metric_id = '1')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "1 Day CPU MAX (%)"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '1' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "7 Day CPU AVG (%)"
+            ,round(max((Select ru.value Where ru.measure_type_id = '1' and ru.metric_id = '1')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "7 Day CPU MAX (%)"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '1' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "30 Day CPU AVG (%)"
+            ,round(max((Select ru.value Where ru.measure_type_id = '1' and ru.metric_id = '1')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "30 Day CPU MAX (%)"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '1' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "90 Day CPU AVG (%)"
+            ,round(max((Select ru.value Where ru.measure_type_id = '1' and ru.metric_id = '1')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "90 Day CPU MAX (%)"
+			,round(avg((Select ru.value * 100 / tdd."Ram" Where ru.measure_type_id = '2' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "1 Day MEM AVG (%)"
+			,round(max((Select ru.value * 100 / tdd."Ram" Where ru.measure_type_id = '2' and ru.metric_id = '1')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "1 Day MEM MAX (%)"
+			,round(avg((Select ru.value * 100 / tdd."Ram" Where ru.measure_type_id = '2' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "7 Day MEM AVG (%)"
+			,round(max((Select ru.value * 100 / tdd."Ram" Where ru.measure_type_id = '2' and ru.metric_id = '1')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "7 Day MEM MAX (%)"
+			,round(avg((Select ru.value * 100 / tdd."Ram" Where ru.measure_type_id = '2' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "30 Day MEM AVG (%)"
+			,round(max((Select ru.value * 100 / tdd."Ram" Where ru.measure_type_id = '2' and ru.metric_id = '1')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "30 Day MEM MAX (%)"
+			,round(avg((Select ru.value * 100 / tdd."Ram" Where ru.measure_type_id = '2' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "90 Day MEM AVG (%)"
+			,round(max((Select ru.value * 100 / tdd."Ram" Where ru.measure_type_id = '2' and ru.metric_id = '1')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "90 Day MEM MAX (%)"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '3' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "1 Day DISK IO Read AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '3' and ru.metric_id = '1')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "1 Day DISK IO Read MAX"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '3' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "7 Day DISK IO Read AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '3' and ru.metric_id = '1')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "7 Day DISK IO Read MAX"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '3' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "30 Day DISK IO Read AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '3' and ru.metric_id = '1')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "30 Day DISK IO Read MAX"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '3' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "90 Day DISK IO Read AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '3' and ru.metric_id = '1')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "90 Day DISK IO Read MAX"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '4' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "1 Day DISK IO Write AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '4' and ru.metric_id = '1')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "1 Day DISK IO Write MAX"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '4' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "7 Day DISK IO Write AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '4' and ru.metric_id = '1')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "7 Day DISK IO Write MAX"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '4' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "30 Day DISK IO Write AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '4' and ru.metric_id = '1')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "30 Day DISK IO Write MAX"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '4' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "90 Day DISK IO Write AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '4' and ru.metric_id = '1')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "90 Day DISK IO Write MAX"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '9' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "1 Day NIC Transfer IN AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '9' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "1 Day NIC Transfer IN MAX"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '10' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "1 Day NIC Transfer OUT AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '10' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "1 Day NIC Transfer OUT MAX"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '9' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "7 Day NIC Transfer IN AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '9' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "7 Day NIC Transfer IN MAX"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '10' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "7 Day NIC Transfer OUT AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '10' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "7 Day NIC Transfer OUT MAX"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '9' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "30 Day NIC Transfer IN AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '9' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "30 Day NIC Transfer IN MAX"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '10' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "30 Day NIC Transfer OUT AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '10' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "30 Day NIC Transfer OUT MAX"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '9' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "90 Day NIC Transfer IN AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '9' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "90 Day NIC Transfer IN MAX"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '10' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "90 Day NIC Transfer OUT AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '10' and ru.metric_id = '3')) over(Partition by tdd.device_pk, ru.timeperiod_id)::numeric, 2) "90 Day NIC Transfer OUT MAX"
+			,rc.name "Remote Collector Name"
+			,rc.ip "Remote Collector IP"			
+        From 
+            target_device_data tdd
+  /* Only get the CPU, Memory, Disk I/O and NIC RU data    */			
+            Join view_rudata_v2 ru on tdd.device_pk = ru.device_fk and ru.measure_type_id IN ('1', '2', '3', '4', '9', '10')
+			Left Join view_remotecollector_v1 rc on rc.remotecollector_pk = ru.remotecollector_fk			
+		Group by
+            tdd.device_pk
+			,rc.name
+			,rc.ip
+	)
+	/*  Now pull all the data together  */
+Select Distinct
+	tdd."Last Successful Discovery"
+	,tdd.device_pk
+	,tdd."Device Name"
+	,tdd."Virtual Subtype"
+	,tdd."OS Name"
+	,tdd."OS Version"
+	,tdd."OS Architecture"
+	,tdd."CPU Count"
+	,tdd."Cores Per Socket"
+	,tdd."In Service?"
+	,tdd."Building Loc"
+	,tdd."Cloud Loc"
+	,tdd."Location"
+	,trd."1 Day CPU AVG (%)"	
+	,trd."1 Day CPU MAX (%)"	
+	,trd."7 Day CPU AVG (%)"	
+	,trd."7 Day CPU MAX (%)"	
+	,trd."30 Day CPU AVG (%)"	
+	,trd."30 Day CPU MAX (%)"	
+	,trd."90 Day CPU AVG (%)"	
+	,trd."90 Day CPU MAX (%)"	
+	,trd."1 Day MEM AVG (%)"	
+	,trd."1 Day MEM MAX (%)"	
+	,trd."7 Day MEM AVG (%)"	
+	,trd."7 Day MEM MAX (%)"	
+	,trd."30 Day MEM AVG (%)"	
+	,trd."30 Day MEM MAX (%)"	
+	,trd."90 Day MEM AVG (%)"	
+	,trd."90 Day MEM MAX (%)"	
+	,trd."1 Day DISK IO Read AVG"	
+	,trd."1 Day DISK IO Read MAX"	
+	,trd."7 Day DISK IO Read AVG"	
+	,trd."7 Day DISK IO Read MAX"	
+	,trd."30 Day DISK IO Read AVG"	
+	,trd."30 Day DISK IO Read MAX"	
+	,trd."90 Day DISK IO Read AVG"	
+	,trd."90 Day DISK IO Read MAX"	
+	,trd."1 Day DISK IO Write AVG"	
+	,trd."1 Day DISK IO Write MAX"	
+	,trd."7 Day DISK IO Write AVG"	
+	,trd."7 Day DISK IO Write MAX"	
+	,trd."30 Day DISK IO Write AVG"	
+	,trd."30 Day DISK IO Write MAX"	
+	,trd."90 Day DISK IO Write AVG"	
+	,trd."90 Day DISK IO Write MAX"	
+	,trd. "1 Day NIC Transfer IN AVG"
+	,trd. "1 Day NIC Transfer IN MAX"
+	,trd. "1 Day NIC Transfer OUT AVG"
+	,trd. "1 Day NIC Transfer OUT MAX"
+	,trd. "7 Day NIC Transfer IN AVG"
+	,trd. "7 Day NIC Transfer IN MAX"
+	,trd. "7 Day NIC Transfer OUT AVG"
+	,trd. "7 Day NIC Transfer OUT MAX"
+	,trd. "30 Day NIC Transfer IN AVG"
+	,trd. "30 Day NIC Transfer IN MAX"
+	,trd. "30 Day NIC Transfer OUT AVG"
+	,trd. "30 Day NIC Transfer OUT MAX"
+	,trd. "90 Day NIC Transfer IN AVG"
+	,trd. "90 Day NIC Transfer IN MAX"
+	,trd. "90 Day NIC Transfer OUT AVG"
+	,trd. "90 Day NIC Transfer OUT MAX"
+	,trd."Remote Collector Name"
+	,trd."Remote Collector IP"
+	,l.last_login
+	,l.domain
+	,l.username
+From
+    target_device_data tdd
+	Join target_ru_data trd on trd.device_pk = tdd.device_pk
+	Left Join view_devicelastlogin_v1 l on l.device_fk = tdd.device_pk and 
+                                      l.last_login = (Select max(lr.last_login) From view_devicelastlogin_v1 lr Where lr.device_fk = tdd.device_pk)   	
+Order by tdd."Last Successful Discovery" ASC, tdd."Device Name" ASC 	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/*
+    2019-10-25 Servers Activity and Utilization
+    Returns discovery, RU, and service connection information to give a sense of when this device
+    was last discovered or how it has been used. Includes fields like last attempted/successful discovery,
+    last service comms and software install, last login, general device details and RU data. 
+    Useful in identifying underutilized or zombie servers.
+    2020-09-15 - Updated to correct a few issues:
+    - Used the avg/max functions vs the sum on many of the data reporting
+    - corrected the ram calculations to figure out if data is in mb or gb
+    - only look at non-network devices
+    - remove the filtering of devices that have a job scan. (want to see all devices that have not been scan)
+    - used CTEs and simplified the grouping
+*/
+With 
+    target_device_data  as (
+        Select
+            d.device_pk
+            ,d.last_edited "Last Successful Discovery"
+            ,d.name "Device Name"
+            ,d.virtual_subtype "Virtual Subtype"
+            ,d.os_name "OS Name"
+            ,d.os_version_no "OS Version"
+            ,d.os_arch "OS Architecture"
+            ,d.cpucount "CPU Count"
+            ,d.cpucore "Cores Per Socket"
+            ,CASE 
+                When ram_size_type = 'GB' 
+                Then d.ram*1024
+                ELSE d.ram
+            END "Ram"         
+            ,CASE
+                WHEN d.in_service = 't'
+                THEN 'YES'
+                ELSE 'NO'
+            END "In Service?"
+        From 
+            view_device_v1 d
+        Where Not network_device    
+        Order by d.name 
+    ),
+ /* Pull the RU data and get the desired values  */ 
+    target_ru_data  as (
+        Select
+            tdd.device_pk
+            ,round(avg((Select ru.value Where ru.measure_type_id = '1' and ru.timeperiod_id = '1' and ru.metric_id = '3'))::numeric, 2) "1 Day CPU AVG (%)"
+            ,round(max((Select ru.value Where ru.measure_type_id = '1' and ru.timeperiod_id = '1' and ru.metric_id = '1'))::numeric, 2) "1 Day CPU MAX (%)"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '1' and ru.timeperiod_id = '2' and ru.metric_id = '3'))::numeric, 2) "7 Day CPU AVG (%)"
+            ,round(max((Select ru.value Where ru.measure_type_id = '1' and ru.timeperiod_id = '2' and ru.metric_id = '1'))::numeric, 2) "7 Day CPU MAX (%)"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '1' and ru.timeperiod_id = '3' and ru.metric_id = '3'))::numeric, 2) "30 Day CPU AVG (%)"
+            ,round(max((Select ru.value Where ru.measure_type_id = '1' and ru.timeperiod_id = '3' and ru.metric_id = '1'))::numeric, 2) "30 Day CPU MAX (%)"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '1' and ru.timeperiod_id = '4' and ru.metric_id = '3'))::numeric, 2) "90 Day CPU AVG (%)"
+            ,round(max((Select ru.value Where ru.measure_type_id = '1' and ru.timeperiod_id = '4' and ru.metric_id = '1'))::numeric, 2) "90 Day CPU MAX (%)" 
+            ,round(avg((Select ru.value * 100 / tdd."Ram" Where ru.measure_type_id = '2' and ru.timeperiod_id = '1' and ru.metric_id = '3'))::numeric, 2) "1 Day MEM AVG (%)"
+            ,round(max((Select ru.value * 100 / tdd."Ram" Where ru.measure_type_id = '2' and ru.timeperiod_id = '1' and ru.metric_id = '1'))::numeric, 2) "1 Day MEM MAX (%)"
+            ,round(avg((Select ru.value * 100 / tdd."Ram" Where ru.measure_type_id = '2' and ru.timeperiod_id = '2' and ru.metric_id = '3'))::numeric, 2) "7 Day MEM AVG (%)"
+            ,round(max((Select ru.value * 100 / tdd."Ram" Where ru.measure_type_id = '2' and ru.timeperiod_id = '2' and ru.metric_id = '1'))::numeric, 2) "7 Day MEM MAX (%)"
+            ,round(avg((Select ru.value * 100 / tdd."Ram" Where ru.measure_type_id = '2' and ru.timeperiod_id = '3' and ru.metric_id = '3'))::numeric, 2) "30 Day MEM AVG (%)"
+            ,round(max((Select ru.value * 100 / tdd."Ram" Where ru.measure_type_id = '2' and ru.timeperiod_id = '3' and ru.metric_id = '1'))::numeric, 2) "30 Day MEM MAX (%)"
+            ,round(avg((Select ru.value * 100 / tdd."Ram" Where ru.measure_type_id = '2' and ru.timeperiod_id = '4' and ru.metric_id = '3'))::numeric, 2) "90 Day MEM AVG (%)"
+            ,round(max((Select ru.value * 100 / tdd."Ram" Where ru.measure_type_id = '2' and ru.timeperiod_id = '4' and ru.metric_id = '1'))::numeric, 2) "90 Day MEM MAX (%)"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '3' and ru.timeperiod_id = '1' and ru.metric_id = '3'))::numeric, 2) "1 Day DISK IO Read AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '3' and ru.timeperiod_id = '1' and ru.metric_id = '1'))::numeric, 2) "1 Day DISK IO Read MAX"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '3' and ru.timeperiod_id = '2' and ru.metric_id = '3'))::numeric, 2) "7 Day DISK IO Read AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '3' and ru.timeperiod_id = '2' and ru.metric_id = '1'))::numeric, 2) "7 Day DISK IO Read MAX"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '3' and ru.timeperiod_id = '3' and ru.metric_id = '3'))::numeric, 2) "30 Day DISK IO Read AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '3' and ru.timeperiod_id = '3' and ru.metric_id = '1'))::numeric, 2) "30 Day DISK IO Read MAX"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '3' and ru.timeperiod_id = '4' and ru.metric_id = '3'))::numeric, 2) "90 Day DISK IO Read AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '3' and ru.timeperiod_id = '4' and ru.metric_id = '1'))::numeric, 2) "90 Day DISK IO Read MAX"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '4' and ru.timeperiod_id = '1' and ru.metric_id = '3'))::numeric, 2) "1 Day DISK IO Write AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '4' and ru.timeperiod_id = '1' and ru.metric_id = '1'))::numeric, 2) "1 Day DISK IO Write MAX"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '4' and ru.timeperiod_id = '2' and ru.metric_id = '3'))::numeric, 2) "7 Day DISK IO Write AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '4' and ru.timeperiod_id = '2' and ru.metric_id = '1'))::numeric, 2) "7 Day DISK IO Write MAX"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '4' and ru.timeperiod_id = '3' and ru.metric_id = '3'))::numeric, 2) "30 Day DISK IO Write AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '4' and ru.timeperiod_id = '3' and ru.metric_id = '1'))::numeric, 2) "30 Day DISK IO Write MAX"
+            ,round(avg((Select ru.value Where ru.measure_type_id = '4' and ru.timeperiod_id = '4' and ru.metric_id = '3'))::numeric, 2) "90 Day DISK IO Write AVG"
+            ,round(max((Select ru.value Where ru.measure_type_id = '4' and ru.timeperiod_id = '4' and ru.metric_id = '1'))::numeric, 2) "90 Day DISK IO Write MAX"
+            ,round(sum((Select ru.value Where ru.measure_type_id = '9' and ru.timeperiod_id = '1' and ru.metric_id = '4'))::numeric, 2) "1 Day NIC Transfer IN"
+            ,round(sum((Select ru.value Where ru.measure_type_id = '10' and ru.timeperiod_id = '1' and ru.metric_id = '4'))::numeric, 2) "1 Day NIC Transfer OUT"
+            ,round(sum((Select ru.value Where ru.measure_type_id = '9' and ru.timeperiod_id = '2' and ru.metric_id = '4'))::numeric, 2) "7 Day NIC Transfer IN"
+            ,round(sum((Select ru.value Where ru.measure_type_id = '10' and ru.timeperiod_id = '2' and ru.metric_id = '4'))::numeric, 2) "7 Day NIC Transfer OUT"
+            ,round(sum((Select ru.value Where ru.measure_type_id = '9' and ru.timeperiod_id = '3' and ru.metric_id = '4'))::numeric, 2) "30 Day NIC Transfer IN"
+            ,round(sum((Select ru.value Where ru.measure_type_id = '10' and ru.timeperiod_id = '3' and ru.metric_id = '4'))::numeric, 2) "30 Day NIC Transfer OUT"
+            ,round(sum((Select ru.value Where ru.measure_type_id = '9' and ru.timeperiod_id = '4' and ru.metric_id = '4'))::numeric, 2) "90 Day NIC Transfer IN"
+            ,round(sum((Select ru.value Where ru.measure_type_id = '10' and ru.timeperiod_id = '4' and ru.metric_id = '4'))::numeric, 2) "90 Day NIC Transfer OUT"
+        From 
+            target_device_data tdd
+            Left Join view_rudata_v2 ru on tdd.device_pk = ru.device_fk 
+        Group by
+            tdd.device_pk       
+    )
+    /*  Now pull all the data together  */
+Select
+    tdd."Last Successful Discovery"
+    ,ds.updated "Last Attempted Discovery"
+    ,(Select max(scl.last_detected) From view_servicecommunication_v2 scl Where tdd.device_pk = scl.listener_device_fk) "Last Detected Comms (Listener)"
+    ,(Select max(scc.last_detected) From view_servicecommunication_v2 scc Where tdd.device_pk = scc.client_device_fk) "Last Detected Comms (Client)"
+    ,(Select max(siu.install_date) From view_softwareinuse_v1 siu Where tdd.device_pk = siu.device_fk) "Last Software Installation"
+    ,tdd.device_pk
+    ,tdd."Device Name"
+    ,tdd."Virtual Subtype"
+    ,tdd."OS Name"
+    ,tdd."OS Version"
+    ,tdd."OS Architecture"
+    ,tdd."CPU Count"
+    ,tdd."Cores Per Socket"
+    ,tdd."In Service?"
+    ,trd."1 Day CPU AVG (%)"  
+    ,trd."1 Day CPU MAX (%)"  
+    ,trd."7 Day CPU AVG (%)"  
+    ,trd."7 Day CPU MAX (%)"  
+    ,trd."30 Day CPU AVG (%)" 
+    ,trd."30 Day CPU MAX (%)" 
+    ,trd."90 Day CPU AVG (%)" 
+    ,trd."90 Day CPU MAX (%)" 
+    ,trd."1 Day MEM AVG (%)"  
+    ,trd."1 Day MEM MAX (%)"  
+    ,trd."7 Day MEM AVG (%)"  
+    ,trd."7 Day MEM MAX (%)"  
+    ,trd."30 Day MEM AVG (%)" 
+    ,trd."30 Day MEM MAX (%)" 
+    ,trd."90 Day MEM AVG (%)" 
+    ,trd."90 Day MEM MAX (%)" 
+    ,trd."1 Day DISK IO Read AVG" 
+    ,trd."1 Day DISK IO Read MAX" 
+    ,trd."7 Day DISK IO Read AVG" 
+    ,trd."7 Day DISK IO Read MAX" 
+    ,trd."30 Day DISK IO Read AVG"    
+    ,trd."30 Day DISK IO Read MAX"    
+    ,trd."90 Day DISK IO Read AVG"    
+    ,trd."90 Day DISK IO Read MAX"    
+    ,trd."1 Day DISK IO Write AVG"    
+    ,trd."1 Day DISK IO Write MAX"    
+    ,trd."7 Day DISK IO Write AVG"    
+    ,trd."7 Day DISK IO Write MAX"    
+    ,trd."30 Day DISK IO Write AVG"   
+    ,trd."30 Day DISK IO Write MAX"   
+    ,trd."90 Day DISK IO Write AVG"   
+    ,trd."90 Day DISK IO Write MAX"   
+    ,trd."1 Day NIC Transfer IN"  
+    ,trd."1 Day NIC Transfer OUT" 
+    ,trd."7 Day NIC Transfer IN"  
+    ,trd."7 Day NIC Transfer OUT" 
+    ,trd."30 Day NIC Transfer IN" 
+    ,trd."30 Day NIC Transfer OUT"    
+    ,trd."90 Day NIC Transfer IN" 
+    ,trd."90 Day NIC Transfer OUT"    
+    ,l.last_login
+    ,l.domain
+    ,l.username
+From
+    target_device_data tdd
+    Left Join target_ru_data trd on trd.device_pk = tdd.device_pk
+    Left Join view_discoveryscores_v1 ds on ds.device_fk = tdd.device_pk and
+                                       ds.added = (Select max(lds.added) From view_discoveryscores_v1 lds Where lds.device_fk = tdd.device_pk)  
+    Left Join view_jobscore_v1 js on ds.jobscore_fk = js.jobscore_pk and
+                                js.jobscore_pk = (Select max(ljs.jobscore_pk) From view_jobscore_v1 ljs Where ljs.jobscore_pk = ds.jobscore_fk)
+    Left Join view_devicelastlogin_v1 l on l.device_fk = tdd.device_pk and 
+                                      l.last_login = (Select max(lr.last_login) From view_devicelastlogin_v1 lr Where lr.device_fk = tdd.device_pk)   
+/* Removed the where clause because it was filtering out devices that had not been scan recently (&gt; 7 days)
+ Where 
+    js.jobscore_pk in (Select max(jobscore_pk) From view_jobscore_v1 jk Group by jk.vserverdiscovery_fk) */  
+Order by tdd."Last Successful Discovery" ASC, "Last Attempted Discovery" ASC, tdd."Device Name" ASC   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/*
+Query for all discovered connections to service instances.
+  - Update 10/1/2020
+  - Add affinity group to listener and client 
+  - Add Business Apps to listener and client
+  - Add device obj category to listener and client
+  - Add App Components to listener and client Service Instance
+  - Add Service End User to listener and client Service Instance
+*/
+/* Get all the Device info required for this report once.  */
+With 
+    target_device_data  as (
+        Select
+            dev.device_pk
+            ,dev.name "Device"
+            ,oc.name "Object Category"
+            ,ag.name "Affinity Group"
+            ,ba.name "Business App"       
+        From    
+            view_device_v1 dev
+ /* get Object Category for  for both listener and client  */   
+            Left Join view_objectcategory_v1 oc On oc.objectcategory_pk = dev.objectcategory_fk
+ /* get affinity Group for both listener and client  */ 
+            Left Join view_affinitygroup_v2 ag On ag.primary_device_fk = dev.device_pk
+ /* get Business Apps for both listener and client  */  
+        Left Join view_businessapplicationelement_v1 bae on bae.device_fk = dev.device_pk
+        Left Join view_businessapplication_v1 ba on ba.businessapplication_pk = bae.businessapplication_fk
+    )
+ /*Pull all the data together for the report  */        
+Select Distinct
+    ldev."Device" "Listener Device"
+    ,ac.name "Listener App Comp"
+    ,ldev."Affinity Group" "Listener Affinity Group"
+    ,ldev."Business App" "Listener Business App"  /* Can comment out this row if you do not want Business App in Rpt  */
+    ,ldev."Object Category" "Listener Object Category"  /* Can comment out this row if you do not want Object Category in Rpt */
+    ,sc.listener_ip "Listening IP"
+    ,lp.port "Listening Port"
+    ,s.displayname "Listening Service"
+	,eu.name "Listener Service User"
+    ,sc.port "Port Communication"
+	,CASE
+		WHEN sc.protocol  = '6'
+			THEN 'TCP'
+		WHEN sc.protocol  = '17'
+			THEN 'UDP'
+		ELSE ''
+	END "Protocol"
+    ,scl.displayname "Client Service"
+	,euc.name "Client Service User"
+    ,acc.name "Client App Comp"	
+    ,cdev."Device" "Client Device"
+    ,cdev."Affinity Group" "Client Affinity Group"   /* Can comment out this row if you do not want Affinity Grp in Rpt  */
+    ,cdev."Business App" "Client Business App"   /* Can comment out this row if you do not want Business App in Rpt */
+    ,cdev."Object Category" "Client Object Category"    /* Can comment out this row if you do not want Object Category in Rpt  */
+    ,sc.client_ip "Client IP"
+    ,sc.port "Client Port Communication"
+    ,sc.client_process_display_name "Process Display Name"
+    ,sc.client_process_name "Process Name"
+    ,sc.last_detected "Communication Last Detected"
+    ,sc.netstat_active_samples "Netstat # Times Port Actively Connected at Discovery"
+    ,sc.netstat_total_samples "Netstat # Times Discovery Checked for Connection"
+    ,sc.netstat_total_eports "Netstat Total # Port Connections at Discovery"
+    ,sc.netstat_all_first_stat "Netstat Time First Time Port Connected at Discovery"
+    ,sc.netstat_all_last_stat "Netstat Last Time Port Connected at Discovery"
+From 
+        view_servicecommunication_v2 sc
+    Join target_device_data ldev On ldev.device_pk = sc.listener_device_fk
+    Join view_servicelistenerport_v2 lp On lp.servicelistenerport_pk = sc.servicelistenerport_fk
+    Join view_serviceinstance_v2 si On si.serviceinstance_pk = lp.discovered_serviceinstance_fk
+    Join view_service_v2 s On s.service_pk = si.service_fk
+    Left Join view_serviceinstance_v2 sic On sic.serviceinstance_pk = sc.client_service_fk
+    Left Join view_service_v2 scl On scl.service_pk = sic.service_fk
+	Left Join view_enduser_v1 euc On euc.enduser_pk = sic.enduser_fk	
+	Left Join view_enduser_v1 eu On eu.enduser_pk = si.enduser_fk
+    Left Join view_serviceinstance_appcomp_v2 sia on sia.serviceinstance_fk = si.serviceinstance_pk
+    Left Join view_appcomp_v1 ac on ac.appcomp_pk = sia.appcomp_fk
+    Left Join view_serviceinstance_appcomp_v2 siac on siac.serviceinstance_fk = sic.serviceinstance_pk
+    Left Join view_appcomp_v1 acc on acc.appcomp_pk = siac.appcomp_fk	
+    Left Join target_device_data cdev On cdev.device_pk = sc.client_device_fk
+Where sc.client_ip != '127.0.0.1' and sc.client_ip != '::1' </t>
+  </si>
+  <si>
+    <t>inf_ovrvw_cre_costs</t>
+  </si>
+  <si>
+    <t>/* CRE Report for release 16.16 */
+/* Inline view of Target CTE (inline views) to streamline the process  - 
+*/
+With 
+    target_cre_data  as (
+    SELECT Distinct
+		/* count (Distinct cre.device_fk) Group by cre.device_fk AS cre_device_count,
+		*/
+        cre.vendor "Vendor"
+		,cre.recommendation_type
+        ,round(sum(cre.monthly_ondemand_cost) Over(Partition by cre.vendor, cre.recommendation_type), 2) "Monthly On-Demand Cost"
+        ,round(sum(cre.monthly_1yr_resvd_noupfront_cost) Over(Partition by cre.vendor, cre.recommendation_type), 2)  "Monthly 1-Year Reserved No Upfront Cost"
+        ,round(sum(cre.monthly_1yr_resvd_partupfront_cost) Over(Partition by cre.vendor, cre.recommendation_type), 2)  "Monthly 1-Year Reserved Partial Upfront Cost"
+        ,round(sum(cre.monthly_1yr_resvd_allupfront_cost) Over(Partition by cre.vendor, cre.recommendation_type), 2)  "Monthly 1-Year Reserved All Upfront Cost"
+        ,round(sum(cre.monthly_prorated_3yr_resvd_noupfront_cost) Over(Partition by cre.vendor, cre.recommendation_type), 2)  "Monthly (prorated) 3-Year Reserved No Upfront Cost"
+        ,round(sum(cre.monthly_prorated_3yr_resvd_partupfront_cost)Over(Partition by cre.vendor, cre.recommendation_type), 2)  "Monthly (prorated) 3-Year Reserved Partial Upfront Cost"
+        ,round(sum(cre.monthly_prorated_3yr_resvd_allupfront_cost) Over(Partition by cre.vendor, cre.recommendation_type), 2)  "Monthly (prorated) 3-Year Reserved All Upfront Cost"
+        ,round(sum(cre.yearly_ondemand_cost) Over(Partition by cre.vendor, cre.recommendation_type), 2)  "Yearly On-Demand Cost"
+        ,round(sum(cre.yearly_1yr_resvd_noupfront_cost) Over(Partition by cre.vendor, cre.recommendation_type), 2)  "Yearly 1-Year Reserved No Upfront Cost"
+        ,round(sum(cre.yearly_1yr_resvd_partupfront_cost) Over(Partition by cre.vendor, cre.recommendation_type), 2)  "Yearly 1-Year Reserved Partial Upfront Cost"
+        ,round(sum(cre.yearly_1yr_resvd_allupfront_cost) Over(Partition by cre.vendor, cre.recommendation_type), 2)  "Yearly 1-Year Reserved All Upfront Cost"
+        ,round(sum(cre.yearly_prorated_3yr_resvd_noupfront_cost) Over(Partition by cre.vendor, cre.recommendation_type), 2)  "Yearly (prorated) 3-Year Reserved No Upfront Cost"
+        ,round(sum(cre.yearly_prorated_3yr_resvd_partupfront_cost) Over(Partition by cre.vendor, cre.recommendation_type), 2)  "Yearly (prorated) 3-Year Reserved Partial Upfront Cost"
+        ,round(sum(cre.yearly_prorated_3yr_resvd_allupfront_cost) Over(Partition by cre.vendor, cre.recommendation_type), 2)  "Yearly (prorated) 3-Year Reserved All Upfront Cost"
+        ,round(sum(cre.monthly_networking_cost) Over(Partition by cre.vendor, cre.recommendation_type), 2)  "Monthly Networking Cost"
+        ,round(sum(cre.yearly_networking_cost) Over(Partition by cre.vendor, cre.recommendation_type), 2)  "Yearly Networking Cost"
+        ,round(sum(cre.monthly_storage_cost) Over(Partition by cre.vendor, cre.recommendation_type), 2)  "Monthly Storage Cost"
+        ,round(sum(cre.yearly_storage_cost) Over(Partition by cre.vendor, cre.recommendation_type), 2)  "Yearly Storage Cost"
+    From view_credata_v2 cre 
+    ),
+/* Get the unique device count from the CRE data  */	
+    target_count_cre_data  as (
+    SELECT
+		count (Distinct cre.device_fk) device_count
+	From view_credata_v2 cre 
+    ),
+/* Get the unique device_fk keys  */		
+    target_unique_cre_data  as (
+    SELECT Distinct
+		cre.device_fk
+	From view_credata_v2 cre
+    ),
+/* Get the mountpoint info from device records  */		
+    target_mountpoint_data  as (
+    Select Distinct        
+        round(((select sum(m.capacity-m.free_capacity)/1024 
+	From view_mountpoint_v1 m 
+ 	Join target_unique_cre_data tucd   
+	  ON m.device_fk = tucd.device_fk 
+	Where
+		m.fstype_name &lt;&gt; 'nfs' and 
+		m.fstype_name &lt;&gt; 'nfs4' and 
+		m.filesystem not like '\\\\%')) , 0)"Used Space"
+    )
+/* Put the data back together  */   
+    Select 
+            tccd.device_count "Total Devices"
+            ,tmd."Used Space"
+            ,tcd."Vendor"
+			,Case When tcd.recommendation_type ='regular'
+				Then 'Existing'
+				  When tcd.recommendation_type ='ru'
+				Then 'Re-sized'
+				Else ''
+			End "Rcmd Type"
+            ,tcd."Monthly On-Demand Cost"
+            ,tcd."Monthly 1-Year Reserved No Upfront Cost"
+            ,tcd."Monthly 1-Year Reserved Partial Upfront Cost"
+            ,tcd."Monthly 1-Year Reserved All Upfront Cost"
+            ,tcd."Monthly (prorated) 3-Year Reserved No Upfront Cost"
+            ,tcd."Monthly (prorated) 3-Year Reserved Partial Upfront Cost"
+            ,tcd."Monthly (prorated) 3-Year Reserved All Upfront Cost"
+            ,tcd."Yearly On-Demand Cost"
+            ,tcd."Yearly 1-Year Reserved No Upfront Cost"
+            ,tcd."Yearly 1-Year Reserved Partial Upfront Cost"
+            ,tcd."Yearly 1-Year Reserved All Upfront Cost"
+            ,tcd."Yearly (prorated) 3-Year Reserved No Upfront Cost"
+            ,tcd."Yearly (prorated) 3-Year Reserved Partial Upfront Cost"
+            ,tcd."Yearly (prorated) 3-Year Reserved All Upfront Cost"
+            ,tcd."Monthly Networking Cost"
+            ,tcd."Yearly Networking Cost"
+            ,tcd."Monthly Storage Cost"
+            ,tcd."Yearly Storage Cost"
+        From target_cre_data tcd, target_count_cre_data tccd, target_mountpoint_data tmd 
+		Order by tcd."Vendor" ASC, "Rcmd Type" ASC</t>
+  </si>
+  <si>
+    <t>/*
+DOQL for App Comp's with related software in use details.
+*/
+select
+ac.name "App Comp",
+d.name "Device",
+ip.ip_address "Device IP",
+s.name "Software Name",
+si.alias_name "Software Alias",
+si.version "Version",
+concat(acws.web_site, '|', acws.pool_name, '|', acws.description, '|', acwb.binding, '|', acwb.protocol) "Web App Details",
+concat(acwvd.path, '|', acwvd.physical_path) "Web Dir Path",
+concat(acwdb.name, '|', acwdb.connection, '|', acwdb.provider) "Web DB Connection",
+adb.name "DB Product Name",
+adb.version "DB Product Version",
+adbi.instance "DB Instance"
+from view_appcomp_v1 ac
+left join view_device_v1 d on d.device_pk = ac.device_fk
+left join view_ipaddress_v1 ip on ip.device_fk = d.device_pk
+left join view_softwareinuse_v1 si on si.appcomp_fk = ac.appcomp_pk
+left join view_software_v1 s on s.software_pk = si.software_fk
+left join view_appcomp_db_products_v1 adb on adb.appcomp_fk = ac.appcomp_pk
+left join view_appcomp_db_data_paths_v1 adbp on adbp.appcomp_fk = ac.appcomp_pk
+left join view_appcomp_db_protocols_v1 adpr on adpr.appcomp_fk = ac.appcomp_pk
+left join view_appcomp_db_instances_v1 adbi on adbi.appcomp_fk = ac.appcomp_pk
+left join view_appcompwebapps_v1 acw on acw.appcomp_fk = ac.appcomp_pk
+left join view_appcomp_web_bindings_v1 acwb on acwb.appcomp_fk = ac.appcomp_pk
+left join view_appcomp_web_sites_v1 acws on acws.appcomp_fk = ac.appcomp_pk
+left join view_appcomp_web_virtual_dir_v1 acwvd on acwvd.appcompwebapps_fk = acw.appcompwebapps_pk
+left join view_appcomp_web_sites_db_conn_v1 acwdb on acwdb.appcompwebapps_fk = acw.appcompwebapps_pk</t>
+  </si>
+  <si>
+    <t>/*
+Built to be a concise report of application components with connections.
+This leverages services that have been discovered with an App Comp, and joins their clients as the "dependents".
+*/
+select distinct
+sac.name "App Comp",
+d.name "Device",
+s.name "Software Name",
+siu.alias_name "Software Alias",
+siu.version "Version",
+sc.port "Port",
+adb.name "DB Product Name",
+adb.version "DB Product Version",
+adbi.instance "DB Instance",
+concat(cd.name, '|', sc.client_ip, '|', sc.client_process_display_name) "Dependents"
+from view_serviceinstance_v2 si
+left join view_servicelistenerport_v2 lp on si.serviceinstance_pk = lp.discovered_serviceinstance_fk
+join view_servicecommunication_v2 sc on sc.servicelistenerport_fk = lp.servicelistenerport_pk
+join view_serviceinstance_appcomp_v2 sica on sica.serviceinstance_fk = si.serviceinstance_pk
+join view_appcomp_v1 sac on sac.appcomp_pk = sica.appcomp_fk
+join view_device_v1 d on d.device_pk = sac.device_fk
+left join view_device_v1 cd on cd.device_pk = sc.client_device_fk
+left join view_appcomp_db_products_v1 adb on adb.appcomp_fk = sac.appcomp_pk
+left join view_appcomp_db_data_paths_v1 adbp on adbp.appcomp_fk = sac.appcomp_pk
+left join view_appcomp_db_protocols_v1 adpr on adpr.appcomp_fk = sac.appcomp_pk
+left join view_appcomp_db_instances_v1 adbi on adbi.appcomp_fk = sac.appcomp_pk
+left join view_softwareinuse_v1 siu on siu.appcomp_fk = sac.appcomp_pk
+left join view_software_v1 s on s.software_pk = siu.software_fk</t>
   </si>
 </sst>
 </file>
@@ -1310,17 +1690,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
   </cols>
@@ -1429,7 +1809,7 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -1437,112 +1817,121 @@
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>